--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
@@ -100,28 +100,6 @@
     <t>TEXT10</t>
   </si>
   <si>
-    <t>View :
-1. Klik icon Lihat Detail pada baris yang dituju</t>
-  </si>
-  <si>
-    <t>Tambah :
-1. Akses menu setup
-2. Klik tombol tambah
-3. Masukkan data
-4. Klik tombol Simpan</t>
-  </si>
-  <si>
-    <t>Ubah :
-1. Klik icon Ubah pada baris yang dituju
-2. Sesuaikan data yang ingin diubah
-3. Klik Simpan</t>
-  </si>
-  <si>
-    <t>Hapus :
-1. Klik icon Hapus pada baris yang dituju
-2. Klik tombol Ya, yakin!</t>
-  </si>
-  <si>
     <t>Setup Profile Bank</t>
   </si>
   <si>
@@ -132,6 +110,18 @@
   </si>
   <si>
     <t>Normal - Investasi - Pasar Uang</t>
+  </si>
+  <si>
+    <t>Tambah Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>View Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>Ubah Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>Hapus Setup Profile Bank</t>
   </si>
 </sst>
 </file>
@@ -619,18 +609,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>22</v>
@@ -645,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
@@ -662,18 +652,18 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>24</v>
@@ -688,10 +678,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
@@ -704,18 +694,18 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
@@ -730,10 +720,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
@@ -747,18 +737,18 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
@@ -773,10 +763,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063CA33-9F0C-44B4-A036-B45AA002E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV001" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -46,30 +52,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>TEXT1</t>
-  </si>
-  <si>
-    <t>TEXT2</t>
-  </si>
-  <si>
-    <t>TEXT3</t>
-  </si>
-  <si>
-    <t>TEXT4</t>
-  </si>
-  <si>
-    <t>TEXT5</t>
-  </si>
-  <si>
-    <t>TEXT6</t>
-  </si>
-  <si>
-    <t>TEXT7</t>
-  </si>
-  <si>
-    <t>TEXT8</t>
-  </si>
-  <si>
     <t>Putri</t>
   </si>
   <si>
@@ -94,12 +76,6 @@
     <t>Hapus Data Dapat dilakukan dengan baik</t>
   </si>
   <si>
-    <t>TEXT9</t>
-  </si>
-  <si>
-    <t>TEXT10</t>
-  </si>
-  <si>
     <t>Setup Profile Bank</t>
   </si>
   <si>
@@ -122,13 +98,178 @@
   </si>
   <si>
     <t>Hapus Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>PREPARATION</t>
+  </si>
+  <si>
+    <t>BANK_ID</t>
+  </si>
+  <si>
+    <t>EMITEN</t>
+  </si>
+  <si>
+    <t>KODE_BI</t>
+  </si>
+  <si>
+    <t>CABANG_BANK</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>NO_TELP</t>
+  </si>
+  <si>
+    <t>NAMA_PIC</t>
+  </si>
+  <si>
+    <t>DAYS_BASIS</t>
+  </si>
+  <si>
+    <t>JENIS_PERHITUNGAN_BUNGA</t>
+  </si>
+  <si>
+    <t>SYARIAH</t>
+  </si>
+  <si>
+    <t>TGL_NON_AKTIF</t>
+  </si>
+  <si>
+    <t>NON_AKTIF</t>
+  </si>
+  <si>
+    <t>KODE_BUKU</t>
+  </si>
+  <si>
+    <t>VALUTA</t>
+  </si>
+  <si>
+    <t>NO_REKENING</t>
+  </si>
+  <si>
+    <t>PEMILIK_REKENING</t>
+  </si>
+  <si>
+    <t>Pejompongan</t>
+  </si>
+  <si>
+    <t>Permata Hijau II</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Memperhitungkan Hari Libur</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>USD : United States Dollar</t>
+  </si>
+  <si>
+    <t>002 : Bank Rakyat Indonesia</t>
+  </si>
+  <si>
+    <t>E0001 : Pemerintah</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+No Rekening : 1234567890</t>
+  </si>
+  <si>
+    <t>Verifikasi Data Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>Verifikasi</t>
+  </si>
+  <si>
+    <t>Verifikasi Profile Bank</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Kode Buku : BPU0223;
+Valuta : USD - United States Dollar;
+No Rekening : 12345678;
+Pemilik Rekening : Tester;
+Bank ID : -;
+Emiten : E0001 - Pemerintah;
+Kode BI : 002 - Bank Rakyat Indonesia;
+Cabang Bank : Pejompongan;
+Alamat : Permata Hijau II;
+No. Telp : 999999999;
+Nama PIC : Tester;
+Days Basis : 365;
+Jenis Perhitungan Bunga : Memperhitungkan Hari Libur;
+Syariah : Checked;
+Tgl. Non Aktif : 18/11/2022;
+Non. Aktif : Checked;</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0269 (sesuaikan dengan hasil generate);
+Petugas Submit : Putri;
+Tanggal Verifikasi : Tanggal hari ini;
+Status Verifikasi : 1 - Setuju;
+Keterangan Verifikasi w: Disetujui;</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0269</t>
+  </si>
+  <si>
+    <t>PAU0269</t>
+  </si>
+  <si>
+    <t>PAU0268</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Data Entry</t>
+  </si>
+  <si>
+    <t>Tolong Diperbaiki</t>
+  </si>
+  <si>
+    <t>Verifikasi Data - Data Dikembalikan Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>Verifikasi Data - Data Disetujui Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>Disetujui</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0269 (sesuaikan dengan hasil generate);
+Petugas Submit : Putri;
+Tanggal Verifikasi : Tanggal hari ini;
+Status Verifikasi : 0 - Dikembalikan ke Data Entry;
+Keterangan Verifikasi : Tolong Diperbaiki;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +282,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -187,12 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -202,10 +325,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,269 +655,463 @@
     <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="32.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="300" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="6">
+        <v>999999999</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="6">
+        <v>365</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="7">
+        <v>44883</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="AC4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="AA5" s="1">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="AC6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="M7" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-019 - Setup Profile Bank Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063CA33-9F0C-44B4-A036-B45AA002E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648B436-C204-4AB8-B0B0-759B586E4C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -190,6 +190,46 @@
   </si>
   <si>
     <t>Verifikasi Profile Bank</t>
+  </si>
+  <si>
+    <t>PAU0268</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Data Entry</t>
+  </si>
+  <si>
+    <t>Tolong Diperbaiki</t>
+  </si>
+  <si>
+    <t>Verifikasi Data - Data Dikembalikan Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>Verifikasi Data - Data Disetujui Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>Disetujui</t>
+  </si>
+  <si>
+    <t>PAU0271</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0271</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0268</t>
   </si>
   <si>
     <t>Username : Putri;
@@ -209,60 +249,25 @@
 Jenis Perhitungan Bunga : Memperhitungkan Hari Libur;
 Syariah : Checked;
 Tgl. Non Aktif : 18/11/2022;
-Non. Aktif : Checked;</t>
+Non. Aktif : Checked</t>
   </si>
   <si>
     <t>Username : Putri;
 Password : bni1234/;
-Bank ID : PAU0269 (sesuaikan dengan hasil generate);
+Bank ID : PAU0271 (sesuaikan dengan hasil generate);
+Petugas Submit : Putri;
+Tanggal Verifikasi : Tanggal hari ini;
+Status Verifikasi : 0 - Dikembalikan ke Data Entry;
+Keterangan Verifikasi : Tolong Diperbaiki</t>
+  </si>
+  <si>
+    <t>Username : Putri;
+Password : bni1234/;
+Bank ID : PAU0271 (sesuaikan dengan hasil generate);
 Petugas Submit : Putri;
 Tanggal Verifikasi : Tanggal hari ini;
 Status Verifikasi : 1 - Setuju;
-Keterangan Verifikasi w: Disetujui;</t>
-  </si>
-  <si>
-    <t>Username : Putri;
-Password : bni1234/;
-Bank ID : PAU0269</t>
-  </si>
-  <si>
-    <t>PAU0269</t>
-  </si>
-  <si>
-    <t>PAU0268</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>KETERANGAN_VERIFIKASI</t>
-  </si>
-  <si>
-    <t>0 : Kembalikan ke Data Entry</t>
-  </si>
-  <si>
-    <t>Tolong Diperbaiki</t>
-  </si>
-  <si>
-    <t>Verifikasi Data - Data Dikembalikan Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Verifikasi Data - Data Disetujui Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>1 : Setuju</t>
-  </si>
-  <si>
-    <t>Disetujui</t>
-  </si>
-  <si>
-    <t>Username : Putri;
-Password : bni1234/;
-Bank ID : PAU0269 (sesuaikan dengan hasil generate);
-Petugas Submit : Putri;
-Tanggal Verifikasi : Tanggal hari ini;
-Status Verifikasi : 0 - Dikembalikan ke Data Entry;
-Keterangan Verifikasi : Tolong Diperbaiki;</t>
+Keterangan Verifikasi w: Disetujui</t>
   </si>
 </sst>
 </file>
@@ -645,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,10 +774,10 @@
         <v>43</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="300" x14ac:dyDescent="0.25">
@@ -792,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -813,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>51</v>
@@ -875,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -896,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="5"/>
@@ -921,7 +926,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>69</v>
@@ -945,7 +950,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
@@ -957,10 +962,10 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="AC4" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -1001,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1030,10 +1035,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1054,7 +1059,7 @@
         <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="3"/>
@@ -1066,10 +1071,10 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="AC6" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -1089,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1110,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
